--- a/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
+++ b/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="46">
   <si>
     <t>Jun_10</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Jun_13</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
   </si>
 </sst>
 </file>
@@ -194,14 +200,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -215,6 +229,12 @@
       <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -224,6 +244,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -237,6 +263,12 @@
       <c r="C4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -248,6 +280,12 @@
       <c r="C5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -257,6 +295,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -268,6 +312,12 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -279,6 +329,12 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -290,6 +346,12 @@
         <v>2</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -301,6 +363,12 @@
         <v>2</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -314,6 +382,12 @@
       <c r="C11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -325,6 +399,12 @@
       <c r="C12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -334,6 +414,12 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -345,6 +431,12 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -358,6 +450,12 @@
       <c r="C15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -369,6 +467,12 @@
       <c r="C16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -378,6 +482,12 @@
         <v>2</v>
       </c>
       <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -389,6 +499,12 @@
         <v>2</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -400,6 +516,12 @@
         <v>2</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -411,6 +533,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -422,6 +550,12 @@
         <v>2</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -435,6 +569,12 @@
       <c r="C22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -446,6 +586,12 @@
       <c r="C23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -457,6 +603,12 @@
       <c r="C24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -468,6 +620,12 @@
       <c r="C25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -479,6 +637,12 @@
       <c r="C26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -488,6 +652,12 @@
         <v>2</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
+++ b/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="50">
   <si>
     <t>Jun_10</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Evercore ISI</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
   </si>
 </sst>
 </file>
@@ -186,8 +198,92 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="85">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -202,20 +298,32 @@
   <cols>
     <col min="3" max="3" customWidth="true" width="8.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -235,6 +343,15 @@
       <c r="E2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -250,6 +367,15 @@
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -269,6 +395,15 @@
       <c r="E4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -286,6 +421,15 @@
       <c r="E5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -301,6 +445,15 @@
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -318,6 +471,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -335,6 +497,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -352,6 +523,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -369,6 +549,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -388,6 +577,15 @@
       <c r="E11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -405,6 +603,15 @@
       <c r="E12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -420,6 +627,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -437,6 +653,15 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -456,6 +681,15 @@
       <c r="E15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -473,6 +707,15 @@
       <c r="E16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -488,6 +731,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -505,6 +757,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -522,6 +783,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -539,6 +809,15 @@
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -556,6 +835,15 @@
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -575,6 +863,15 @@
       <c r="E22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -592,6 +889,15 @@
       <c r="E23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -609,6 +915,15 @@
       <c r="E24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -626,6 +941,15 @@
       <c r="E25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -643,6 +967,15 @@
       <c r="E26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="F26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -658,7 +991,44 @@
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
+++ b/Reports/MarketBeatRank/TanzyWatch2/LOW.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77653" uniqueCount="129">
   <si>
     <t>Jun_10</t>
   </si>
@@ -162,6 +162,243 @@
   </si>
   <si>
     <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Jun_29</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Jul_12</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>7/24/2018,Upgrades,Hold -&gt; Buy,$113.00</t>
+  </si>
+  <si>
+    <t>7/24/2018,Reiterates,Overweight -&gt; Overweight,$105.00 -&gt; $115.00</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>8/14/2018,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Aug_19</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>8/21/2018,Initiates,Buy,$118.00</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Overweight -&gt; Overweight,$115.00 -&gt; $125.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Buy,$120.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,In-Line -&gt; Buy,$105.00 -&gt; $125.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Outperform,$118.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Neutral -&gt; Neutral,$99.00 -&gt; $112.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Buy -&gt; Buy,$113.00 -&gt; $126.00</t>
+  </si>
+  <si>
+    <t>8/23/2018,Raises Target,Outperform -&gt; Outperform,$110.00 -&gt; $120.00</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>9/28/2018,Set Price Target,Buy,$125.00</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>10/2/2018,Set Price Target,Buy,$132.00</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>10/17/2018,Reiterates,Outperform -&gt; Neutral,$115.00 -&gt; $111.00</t>
+  </si>
+  <si>
+    <t>10/11/2018,Raises Target,Overweight,$115.00 -&gt; $125.00</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>10/23/2018,Lowers Target,Overweight -&gt; Overweight,$125.00 -&gt; $110.00</t>
+  </si>
+  <si>
+    <t>10/23/2018,Upgrades,Neutral -&gt; Buy,$112.00 -&gt; $112.00</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>11/5/2018,Reiterates,Hold,$111.00</t>
+  </si>
+  <si>
+    <t>11/5/2018,Set Price Target,Buy,$126.00</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>11/16/2018,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>11/21/2018,Lowers Target,Neutral -&gt; Neutral,$111.00 -&gt; $99.00</t>
+  </si>
+  <si>
+    <t>11/21/2018,Lowers Target,Overweight -&gt; Overweight,$125.00 -&gt; $115.00</t>
+  </si>
+  <si>
+    <t>11/21/2018,Lowers Target,Neutral -&gt; Neutral,$110.00 -&gt; $93.00</t>
+  </si>
+  <si>
+    <t>11/20/2018,Set Price Target,Buy,$119.00</t>
+  </si>
+  <si>
+    <t>11/21/2018,Downgrades,Buy -&gt; Hold,$125.00 -&gt; $92.00</t>
+  </si>
+  <si>
+    <t>11/21/2018,Lowers Target,Buy -&gt; Buy,$112.00 -&gt; $110.00</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>12/11/2018,Set Price Target,Hold,$99.00</t>
+  </si>
+  <si>
+    <t>12/13/2018,Raises Target,Outperform,$105.00</t>
+  </si>
+  <si>
+    <t>12/13/2018,Raises Target,Outperform,$105.00 -&gt; $110.00</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>1/7/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>1/9/2019,Downgrades,Overweight -&gt; Equal Weight,$120.00 -&gt; $105.00</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>1/16/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>2/28/2019,Raises Target,Overweight -&gt; Overweight,$110.00 -&gt; $115.00</t>
+  </si>
+  <si>
+    <t>2/28/2019,Raises Target,Overweight -&gt; Overweight,$115.00 -&gt; $120.00</t>
+  </si>
+  <si>
+    <t>2/28/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>2/28/2019,Raises Target,,$110.00 -&gt; $120.00</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
   </si>
 </sst>
 </file>
@@ -178,12 +415,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,28 +455,1288 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="1345">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -301,29 +1818,209 @@
     <col min="5" max="5" customWidth="true" width="8.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="8.0" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -352,6 +2049,141 @@
       <c r="H2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -376,6 +2208,141 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="870" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="842" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="758" t="s">
+        <v>94</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -404,6 +2371,141 @@
       <c r="H4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -430,6 +2532,141 @@
       <c r="H5" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="368" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -454,6 +2691,141 @@
         <v>2</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="565" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -467,11 +2839,11 @@
       <c r="C7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>2</v>
+      <c r="D7" s="1266" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="1238" t="s">
+        <v>122</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>2</v>
@@ -480,6 +2852,141 @@
         <v>2</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="650" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA7" s="622" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -493,11 +3000,11 @@
       <c r="C8" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>2</v>
+      <c r="D8" s="1267" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1239" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>2</v>
@@ -506,6 +3013,141 @@
         <v>2</v>
       </c>
       <c r="H8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="763" t="s">
+        <v>95</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="455" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA8" s="0" t="s">
         <v>34</v>
       </c>
     </row>
@@ -532,6 +3174,141 @@
         <v>2</v>
       </c>
       <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="456" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA9" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -558,6 +3335,141 @@
         <v>2</v>
       </c>
       <c r="H10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="765" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="0" t="s">
         <v>35</v>
       </c>
     </row>
@@ -574,8 +3486,8 @@
       <c r="D11" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>2</v>
+      <c r="E11" s="1242" t="s">
+        <v>124</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>2</v>
@@ -584,6 +3496,141 @@
         <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="990" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="962" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="738" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA11" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -612,6 +3659,141 @@
       <c r="H12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -636,6 +3818,141 @@
         <v>2</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="768" t="s">
+        <v>97</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="712" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" s="684" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA13" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -662,6 +3979,141 @@
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="769" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="461" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA14" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -690,6 +4142,141 @@
       <c r="H15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -716,6 +4303,141 @@
       <c r="H16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -740,6 +4462,141 @@
         <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA17" s="0" t="s">
         <v>38</v>
       </c>
     </row>
@@ -766,6 +4623,141 @@
         <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="885" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" s="857" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="465" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA18" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -792,6 +4784,141 @@
         <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="774" t="s">
+        <v>99</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="662" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" s="466" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -818,6 +4945,141 @@
         <v>2</v>
       </c>
       <c r="H20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="607" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="467" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA20" s="0" t="s">
         <v>40</v>
       </c>
     </row>
@@ -831,11 +5093,11 @@
       <c r="C21" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>2</v>
+      <c r="D21" s="1280" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1252" t="s">
+        <v>125</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>2</v>
@@ -844,6 +5106,141 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="888" t="s">
+        <v>105</v>
+      </c>
+      <c r="S21" s="860" t="s">
+        <v>105</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="468" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA21" s="0" t="s">
         <v>26</v>
       </c>
     </row>
@@ -872,6 +5269,141 @@
       <c r="H22" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA22" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -898,6 +5430,141 @@
       <c r="H23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -924,6 +5591,141 @@
       <c r="H24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -950,6 +5752,141 @@
       <c r="H25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -976,6 +5913,141 @@
       <c r="H26" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="I26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA26" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1000,6 +6072,141 @@
         <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27" s="978" t="s">
+        <v>110</v>
+      </c>
+      <c r="P27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA27" s="0" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1016,6 +6223,141 @@
       <c r="D28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="E28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1028,6 +6370,141 @@
         <v>2</v>
       </c>
       <c r="D29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW29" s="0" t="s">
         <v>2</v>
       </c>
     </row>
